--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="17">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -73,10 +73,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -140,11 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,7 +451,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,6 +479,9 @@
       <c r="F1">
         <v>280</v>
       </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
@@ -490,6 +502,9 @@
       <c r="F2">
         <v>280</v>
       </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
@@ -513,8 +528,8 @@
       <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>0</v>
+      <c r="H3">
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -554,8 +569,8 @@
       <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>0</v>
+      <c r="H4">
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -595,8 +610,8 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>0</v>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -618,26 +633,26 @@
       <c r="A6">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>2510</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>200</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>1200</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
@@ -659,26 +674,26 @@
       <c r="A7">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>2510</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>1200</v>
       </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -718,8 +733,8 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>0</v>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
@@ -741,26 +756,26 @@
       <c r="A9">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>2890</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>200</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>1200</v>
       </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
@@ -782,26 +797,26 @@
       <c r="A10">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>2890</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>200</v>
       </c>
-      <c r="F10">
-        <v>210</v>
+      <c r="F10" s="4">
+        <v>1200</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>0</v>
@@ -823,26 +838,26 @@
       <c r="A11">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>3570</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>200</v>
       </c>
-      <c r="F11">
-        <v>210</v>
+      <c r="F11" s="4">
+        <v>1200</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>0</v>
+      <c r="H11">
+        <v>5</v>
       </c>
       <c r="I11" t="s">
         <v>0</v>
@@ -864,26 +879,26 @@
       <c r="A12">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3570</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>200</v>
       </c>
-      <c r="F12">
-        <v>210</v>
+      <c r="F12" s="4">
+        <v>1200</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>0</v>
+      <c r="H12">
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>0</v>
@@ -905,26 +920,26 @@
       <c r="A13">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>2355</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>80</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>850</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>0</v>
+      <c r="H13" s="4">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
@@ -946,26 +961,26 @@
       <c r="A14">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2355</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>80</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>850</v>
       </c>
       <c r="G14" t="s">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>0</v>
+      <c r="H14" s="4">
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
@@ -987,26 +1002,26 @@
       <c r="A15">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>2500</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>160</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>940</v>
       </c>
       <c r="G15" t="s">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>0</v>
+      <c r="H15" s="4">
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>0</v>
@@ -1028,26 +1043,26 @@
       <c r="A16">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>3880</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>160</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>940</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>0</v>
+      <c r="H16" s="4">
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
@@ -1766,6 +1781,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
